--- a/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_base/6.2.b_dm_test_hln_resultados.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_base/6.2.b_dm_test_hln_resultados.xlsx
@@ -134,22 +134,22 @@
     <t>3.0796</t>
   </si>
   <si>
-    <t>3.2182</t>
-  </si>
-  <si>
-    <t>3.3240</t>
+    <t>3.2318</t>
+  </si>
+  <si>
+    <t>3.3418</t>
   </si>
   <si>
     <t>4.3291</t>
   </si>
   <si>
-    <t>6.1123</t>
+    <t>5.8505</t>
   </si>
   <si>
     <t>10.0312</t>
   </si>
   <si>
-    <t>11.2516</t>
+    <t>11.2519</t>
   </si>
   <si>
     <t>0.2730</t>
@@ -161,22 +161,22 @@
     <t>3.8338</t>
   </si>
   <si>
-    <t>5.6794</t>
-  </si>
-  <si>
-    <t>5.2901</t>
+    <t>5.6931</t>
+  </si>
+  <si>
+    <t>5.3088</t>
   </si>
   <si>
     <t>12.4705</t>
   </si>
   <si>
-    <t>7.6955</t>
+    <t>8.3502</t>
   </si>
   <si>
     <t>18.2651</t>
   </si>
   <si>
-    <t>19.4290</t>
+    <t>19.4286</t>
   </si>
   <si>
     <t>0.4987</t>
@@ -188,22 +188,22 @@
     <t>1.2449</t>
   </si>
   <si>
-    <t>1.7648</t>
-  </si>
-  <si>
-    <t>1.5915</t>
+    <t>1.7616</t>
+  </si>
+  <si>
+    <t>1.5886</t>
   </si>
   <si>
     <t>2.8806</t>
   </si>
   <si>
-    <t>1.2590</t>
+    <t>1.4273</t>
   </si>
   <si>
     <t>1.8208</t>
   </si>
   <si>
-    <t>1.7268</t>
+    <t>1.7267</t>
   </si>
 </sst>
 </file>
@@ -1025,22 +1025,22 @@
         <v>7.529521828253394E-08</v>
       </c>
       <c r="E2">
-        <v>0.0002622581671241075</v>
+        <v>0.0002577238745982147</v>
       </c>
       <c r="F2">
-        <v>9.988613140210489E-05</v>
+        <v>9.744071353834372E-05</v>
       </c>
       <c r="G2">
         <v>0.01144103144922681</v>
       </c>
       <c r="H2">
-        <v>4.439230525576932E-05</v>
+        <v>5.522464219898104E-05</v>
       </c>
       <c r="I2">
         <v>0.0001446732207299739</v>
       </c>
       <c r="J2">
-        <v>0.0001037382102597739</v>
+        <v>0.0001037623964739165</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1057,22 +1057,22 @@
         <v>2.836731636257639E-07</v>
       </c>
       <c r="E3">
-        <v>0.00131769530846837</v>
+        <v>0.001287150121203284</v>
       </c>
       <c r="F3">
-        <v>0.0005017912746114739</v>
+        <v>0.0004852385189262343</v>
       </c>
       <c r="G3">
         <v>0.02402819934446154</v>
       </c>
       <c r="H3">
-        <v>9.367710773622306E-05</v>
+        <v>0.0001243367486258862</v>
       </c>
       <c r="I3">
         <v>0.0002299154921054924</v>
       </c>
       <c r="J3">
-        <v>0.0001555694025339172</v>
+        <v>0.0001556057810834233</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1089,22 +1089,22 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.7374285795433537</v>
+        <v>0.714167567523782</v>
       </c>
       <c r="F4">
-        <v>0.5290914481492885</v>
+        <v>0.5022270148748564</v>
       </c>
       <c r="G4">
         <v>0.3010585254134945</v>
       </c>
       <c r="H4">
-        <v>0.001533652480893322</v>
+        <v>0.002682463344695574</v>
       </c>
       <c r="I4">
         <v>0.001056711160097867</v>
       </c>
       <c r="J4">
-        <v>0.0005680820730455949</v>
+        <v>0.0005682332554219904</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1112,31 +1112,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.0002622581671241075</v>
+        <v>0.0002577238745982147</v>
       </c>
       <c r="C5">
-        <v>0.00131769530846837</v>
+        <v>0.001287150121203284</v>
       </c>
       <c r="D5">
-        <v>0.7374285795433537</v>
+        <v>0.714167567523782</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3980621967735443</v>
+        <v>0.3832519255059395</v>
       </c>
       <c r="G5">
-        <v>0.18974200597772</v>
+        <v>0.1938612494473171</v>
       </c>
       <c r="H5">
-        <v>7.958939860341907E-05</v>
+        <v>7.605091765006122E-05</v>
       </c>
       <c r="I5">
-        <v>0.0001427973155776474</v>
+        <v>0.0001435341302695736</v>
       </c>
       <c r="J5">
-        <v>8.937565481170751E-05</v>
+        <v>8.977679979005337E-05</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1144,31 +1144,31 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>9.988613140210489E-05</v>
+        <v>9.744071353834372E-05</v>
       </c>
       <c r="C6">
-        <v>0.0005017912746114739</v>
+        <v>0.0004852385189262343</v>
       </c>
       <c r="D6">
-        <v>0.5290914481492885</v>
+        <v>0.5022270148748564</v>
       </c>
       <c r="E6">
-        <v>0.3980621967735443</v>
+        <v>0.3832519255059395</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2653607726537621</v>
+        <v>0.2723779474529504</v>
       </c>
       <c r="H6">
-        <v>0.0002400303506908674</v>
+        <v>0.0003438231333710018</v>
       </c>
       <c r="I6">
-        <v>0.0002441035705038619</v>
+        <v>0.0002465096553081469</v>
       </c>
       <c r="J6">
-        <v>0.000141436830806807</v>
+        <v>0.0001425490315443145</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1185,22 +1185,22 @@
         <v>0.3010585254134945</v>
       </c>
       <c r="E7">
-        <v>0.18974200597772</v>
+        <v>0.1938612494473171</v>
       </c>
       <c r="F7">
-        <v>0.2653607726537621</v>
+        <v>0.2723779474529504</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.02616695784232781</v>
+        <v>0.04963890425688189</v>
       </c>
       <c r="I7">
         <v>2.374877394739627E-07</v>
       </c>
       <c r="J7">
-        <v>4.820060581778307E-07</v>
+        <v>4.820615844280951E-07</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1208,31 +1208,31 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4.439230525576932E-05</v>
+        <v>5.522464219898104E-05</v>
       </c>
       <c r="C8">
-        <v>9.367710773622306E-05</v>
+        <v>0.0001243367486258862</v>
       </c>
       <c r="D8">
-        <v>0.001533652480893322</v>
+        <v>0.002682463344695574</v>
       </c>
       <c r="E8">
-        <v>7.958939860341907E-05</v>
+        <v>7.605091765006122E-05</v>
       </c>
       <c r="F8">
-        <v>0.0002400303506908674</v>
+        <v>0.0003438231333710018</v>
       </c>
       <c r="G8">
-        <v>0.02616695784232781</v>
+        <v>0.04963890425688189</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.004238022155498955</v>
+        <v>0.002386762913121565</v>
       </c>
       <c r="J8">
-        <v>0.001012851526752234</v>
+        <v>0.0006917871841818357</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1249,22 +1249,22 @@
         <v>0.001056711160097867</v>
       </c>
       <c r="E9">
-        <v>0.0001427973155776474</v>
+        <v>0.0001435341302695736</v>
       </c>
       <c r="F9">
-        <v>0.0002441035705038619</v>
+        <v>0.0002465096553081469</v>
       </c>
       <c r="G9">
         <v>2.374877394739627E-07</v>
       </c>
       <c r="H9">
-        <v>0.004238022155498955</v>
+        <v>0.002386762913121565</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.0001139600889714654</v>
+        <v>0.0001143959611751288</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1272,28 +1272,28 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>0.0001037382102597739</v>
+        <v>0.0001037623964739165</v>
       </c>
       <c r="C10">
-        <v>0.0001555694025339172</v>
+        <v>0.0001556057810834233</v>
       </c>
       <c r="D10">
-        <v>0.0005680820730455949</v>
+        <v>0.0005682332554219904</v>
       </c>
       <c r="E10">
-        <v>8.937565481170751E-05</v>
+        <v>8.977679979005337E-05</v>
       </c>
       <c r="F10">
-        <v>0.000141436830806807</v>
+        <v>0.0001425490315443145</v>
       </c>
       <c r="G10">
-        <v>4.820060581778307E-07</v>
+        <v>4.820615844280951E-07</v>
       </c>
       <c r="H10">
-        <v>0.001012851526752234</v>
+        <v>0.0006917871841818357</v>
       </c>
       <c r="I10">
-        <v>0.0001139600889714654</v>
+        <v>0.0001143959611751288</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1355,22 +1355,22 @@
         <v>-7.883180465644629</v>
       </c>
       <c r="E2">
-        <v>-4.341075646796781</v>
+        <v>-4.348212633911547</v>
       </c>
       <c r="F2">
-        <v>-4.736591969704208</v>
+        <v>-4.746772442247551</v>
       </c>
       <c r="G2">
         <v>-2.759396455286394</v>
       </c>
       <c r="H2">
-        <v>-5.070788841986046</v>
+        <v>-4.980555018623723</v>
       </c>
       <c r="I2">
         <v>-4.584626277100824</v>
       </c>
       <c r="J2">
-        <v>-4.72105369115563</v>
+        <v>-4.72095797647928</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1387,22 +1387,22 @@
         <v>-7.261149194559002</v>
       </c>
       <c r="E3">
-        <v>-3.678214638656028</v>
+        <v>-3.687915806702163</v>
       </c>
       <c r="F3">
-        <v>-4.075434487302189</v>
+        <v>-4.089180297696976</v>
       </c>
       <c r="G3">
         <v>-2.423867914213283</v>
       </c>
       <c r="H3">
-        <v>-4.762954593175897</v>
+        <v>-4.646729978517622</v>
       </c>
       <c r="I3">
         <v>-4.394937809193158</v>
       </c>
       <c r="J3">
-        <v>-4.55487232395872</v>
+        <v>-4.554776532736073</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1419,22 +1419,22 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.3395325176464766</v>
+        <v>-0.3710252963196961</v>
       </c>
       <c r="F4">
-        <v>-0.6395152829127488</v>
+        <v>-0.6822090562709844</v>
       </c>
       <c r="G4">
         <v>-1.059068771799697</v>
       </c>
       <c r="H4">
-        <v>-3.615353734124127</v>
+        <v>-3.382258339709366</v>
       </c>
       <c r="I4">
         <v>-3.769386614368762</v>
       </c>
       <c r="J4">
-        <v>-4.024565987136707</v>
+        <v>-4.024456860711632</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1442,31 +1442,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>4.341075646796781</v>
+        <v>4.348212633911547</v>
       </c>
       <c r="C5">
-        <v>3.678214638656028</v>
+        <v>3.687915806702163</v>
       </c>
       <c r="D5">
-        <v>0.3395325176464766</v>
+        <v>0.3710252963196961</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.8618591440680993</v>
+        <v>-0.8897019346994872</v>
       </c>
       <c r="G5">
-        <v>-1.353175705142833</v>
+        <v>-1.340191172142515</v>
       </c>
       <c r="H5">
-        <v>-4.829957353704814</v>
+        <v>-4.848670148498835</v>
       </c>
       <c r="I5">
-        <v>-4.589975091008321</v>
+        <v>-4.587865822655715</v>
       </c>
       <c r="J5">
-        <v>-4.782271277603614</v>
+        <v>-4.780430667496843</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1474,31 +1474,31 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>4.736591969704208</v>
+        <v>4.746772442247551</v>
       </c>
       <c r="C6">
-        <v>4.075434487302189</v>
+        <v>4.089180297696976</v>
       </c>
       <c r="D6">
-        <v>0.6395152829127488</v>
+        <v>0.6822090562709844</v>
       </c>
       <c r="E6">
-        <v>0.8618591440680993</v>
+        <v>0.8897019346994872</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.142912029998401</v>
+        <v>-1.125809895187498</v>
       </c>
       <c r="H6">
-        <v>-4.377318222048452</v>
+        <v>-4.230255406914275</v>
       </c>
       <c r="I6">
-        <v>-4.370431927666162</v>
+        <v>-4.36641796718269</v>
       </c>
       <c r="J6">
-        <v>-4.593898622965439</v>
+        <v>-4.590688313660952</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1515,22 +1515,22 @@
         <v>1.059068771799697</v>
       </c>
       <c r="E7">
-        <v>1.353175705142833</v>
+        <v>1.340191172142515</v>
       </c>
       <c r="F7">
-        <v>1.142912029998401</v>
+        <v>1.125809895187498</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-2.384238179798018</v>
+        <v>-2.077452679044677</v>
       </c>
       <c r="I7">
         <v>-7.343100255780795</v>
       </c>
       <c r="J7">
-        <v>-7.019068375176656</v>
+        <v>-7.019016154225326</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1538,31 +1538,31 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>5.070788841986046</v>
+        <v>4.980555018623723</v>
       </c>
       <c r="C8">
-        <v>4.762954593175897</v>
+        <v>4.646729978517622</v>
       </c>
       <c r="D8">
-        <v>3.615353734124127</v>
+        <v>3.382258339709366</v>
       </c>
       <c r="E8">
-        <v>4.829957353704814</v>
+        <v>4.848670148498835</v>
       </c>
       <c r="F8">
-        <v>4.377318222048452</v>
+        <v>4.230255406914275</v>
       </c>
       <c r="G8">
-        <v>2.384238179798018</v>
+        <v>2.077452679044677</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-3.189249894785262</v>
+        <v>-3.431181344536168</v>
       </c>
       <c r="J8">
-        <v>-3.786866859616706</v>
+        <v>-3.94371576889124</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1579,22 +1579,22 @@
         <v>3.769386614368762</v>
       </c>
       <c r="E9">
-        <v>4.589975091008321</v>
+        <v>4.587865822655715</v>
       </c>
       <c r="F9">
-        <v>4.370431927666162</v>
+        <v>4.36641796718269</v>
       </c>
       <c r="G9">
         <v>7.343100255780795</v>
       </c>
       <c r="H9">
-        <v>3.189249894785262</v>
+        <v>3.431181344536168</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-4.682479770526879</v>
+        <v>-4.68091333328874</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1602,28 +1602,28 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>4.72105369115563</v>
+        <v>4.72095797647928</v>
       </c>
       <c r="C10">
-        <v>4.55487232395872</v>
+        <v>4.554776532736073</v>
       </c>
       <c r="D10">
-        <v>4.024565987136707</v>
+        <v>4.024456860711632</v>
       </c>
       <c r="E10">
-        <v>4.782271277603614</v>
+        <v>4.780430667496843</v>
       </c>
       <c r="F10">
-        <v>4.593898622965439</v>
+        <v>4.590688313660952</v>
       </c>
       <c r="G10">
-        <v>7.019068375176656</v>
+        <v>7.019016154225326</v>
       </c>
       <c r="H10">
-        <v>3.786866859616706</v>
+        <v>3.94371576889124</v>
       </c>
       <c r="I10">
-        <v>4.682479770526879</v>
+        <v>4.68091333328874</v>
       </c>
       <c r="J10">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_base/6.2.b_dm_test_hln_resultados.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_base/6.2.b_dm_test_hln_resultados.xlsx
@@ -59,12 +59,12 @@
     <t>Sieve Bootstrap</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
     <t>LSPM</t>
   </si>
   <si>
-    <t>LSPMW</t>
-  </si>
-  <si>
     <t>MCPS</t>
   </si>
   <si>
@@ -110,15 +110,15 @@
     <t>87.5%</t>
   </si>
   <si>
-    <t>75.0%</t>
+    <t>62.5%</t>
+  </si>
+  <si>
+    <t>37.5%</t>
   </si>
   <si>
     <t>25.0%</t>
   </si>
   <si>
-    <t>37.5%</t>
-  </si>
-  <si>
     <t>12.5%</t>
   </si>
   <si>
@@ -128,12 +128,12 @@
     <t>0.5475</t>
   </si>
   <si>
+    <t>1.0636</t>
+  </si>
+  <si>
     <t>1.0648</t>
   </si>
   <si>
-    <t>3.0796</t>
-  </si>
-  <si>
     <t>3.2318</t>
   </si>
   <si>
@@ -155,12 +155,12 @@
     <t>0.2730</t>
   </si>
   <si>
+    <t>0.9098</t>
+  </si>
+  <si>
     <t>0.9162</t>
   </si>
   <si>
-    <t>3.8338</t>
-  </si>
-  <si>
     <t>5.6931</t>
   </si>
   <si>
@@ -182,10 +182,10 @@
     <t>0.4987</t>
   </si>
   <si>
+    <t>0.8554</t>
+  </si>
+  <si>
     <t>0.8605</t>
-  </si>
-  <si>
-    <t>1.2449</t>
   </si>
   <si>
     <t>1.7616</t>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -753,22 +753,22 @@
         <v>-1</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>-1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>-1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E8">
         <v>-1</v>
@@ -1019,10 +1019,10 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>5.01846786349347E-10</v>
+      </c>
+      <c r="D2">
         <v>1.026538631876406E-09</v>
-      </c>
-      <c r="D2">
-        <v>7.529521828253394E-08</v>
       </c>
       <c r="E2">
         <v>0.0002577238745982147</v>
@@ -1048,31 +1048,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.026538631876406E-09</v>
+        <v>5.01846786349347E-10</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.836731636257639E-07</v>
+        <v>0.7134104142555064</v>
       </c>
       <c r="E3">
-        <v>0.001287150121203284</v>
+        <v>0.001321724128953816</v>
       </c>
       <c r="F3">
-        <v>0.0004852385189262343</v>
+        <v>0.0005017026755660403</v>
       </c>
       <c r="G3">
-        <v>0.02402819934446154</v>
+        <v>0.02413947412741146</v>
       </c>
       <c r="H3">
-        <v>0.0001243367486258862</v>
+        <v>0.0001269057032724508</v>
       </c>
       <c r="I3">
-        <v>0.0002299154921054924</v>
+        <v>0.0002318518968520422</v>
       </c>
       <c r="J3">
-        <v>0.0001556057810834233</v>
+        <v>0.000156917181869165</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1080,31 +1080,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>7.529521828253394E-08</v>
+        <v>1.026538631876406E-09</v>
       </c>
       <c r="C4">
-        <v>2.836731636257639E-07</v>
+        <v>0.7134104142555064</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.714167567523782</v>
+        <v>0.001287150121203284</v>
       </c>
       <c r="F4">
-        <v>0.5022270148748564</v>
+        <v>0.0004852385189262343</v>
       </c>
       <c r="G4">
-        <v>0.3010585254134945</v>
+        <v>0.02402819934446154</v>
       </c>
       <c r="H4">
-        <v>0.002682463344695574</v>
+        <v>0.0001243367486258862</v>
       </c>
       <c r="I4">
-        <v>0.001056711160097867</v>
+        <v>0.0002299154921054924</v>
       </c>
       <c r="J4">
-        <v>0.0005682332554219904</v>
+        <v>0.0001556057810834233</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1115,10 +1115,10 @@
         <v>0.0002577238745982147</v>
       </c>
       <c r="C5">
+        <v>0.001321724128953816</v>
+      </c>
+      <c r="D5">
         <v>0.001287150121203284</v>
-      </c>
-      <c r="D5">
-        <v>0.714167567523782</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1147,10 +1147,10 @@
         <v>9.744071353834372E-05</v>
       </c>
       <c r="C6">
+        <v>0.0005017026755660403</v>
+      </c>
+      <c r="D6">
         <v>0.0004852385189262343</v>
-      </c>
-      <c r="D6">
-        <v>0.5022270148748564</v>
       </c>
       <c r="E6">
         <v>0.3832519255059395</v>
@@ -1179,10 +1179,10 @@
         <v>0.01144103144922681</v>
       </c>
       <c r="C7">
+        <v>0.02413947412741146</v>
+      </c>
+      <c r="D7">
         <v>0.02402819934446154</v>
-      </c>
-      <c r="D7">
-        <v>0.3010585254134945</v>
       </c>
       <c r="E7">
         <v>0.1938612494473171</v>
@@ -1211,10 +1211,10 @@
         <v>5.522464219898104E-05</v>
       </c>
       <c r="C8">
+        <v>0.0001269057032724508</v>
+      </c>
+      <c r="D8">
         <v>0.0001243367486258862</v>
-      </c>
-      <c r="D8">
-        <v>0.002682463344695574</v>
       </c>
       <c r="E8">
         <v>7.605091765006122E-05</v>
@@ -1243,10 +1243,10 @@
         <v>0.0001446732207299739</v>
       </c>
       <c r="C9">
+        <v>0.0002318518968520422</v>
+      </c>
+      <c r="D9">
         <v>0.0002299154921054924</v>
-      </c>
-      <c r="D9">
-        <v>0.001056711160097867</v>
       </c>
       <c r="E9">
         <v>0.0001435341302695736</v>
@@ -1275,10 +1275,10 @@
         <v>0.0001037623964739165</v>
       </c>
       <c r="C10">
+        <v>0.000156917181869165</v>
+      </c>
+      <c r="D10">
         <v>0.0001556057810834233</v>
-      </c>
-      <c r="D10">
-        <v>0.0005682332554219904</v>
       </c>
       <c r="E10">
         <v>8.977679979005337E-05</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="C2">
+        <v>-10.4901765744301</v>
+      </c>
+      <c r="D2">
         <v>-10.08933798616029</v>
-      </c>
-      <c r="D2">
-        <v>-7.883180465644629</v>
       </c>
       <c r="E2">
         <v>-4.348212633911547</v>
@@ -1378,31 +1378,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>10.08933798616029</v>
+        <v>10.4901765744301</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-7.261149194559002</v>
+        <v>-0.3720566733055678</v>
       </c>
       <c r="E3">
-        <v>-3.687915806702163</v>
+        <v>-3.676951652477945</v>
       </c>
       <c r="F3">
-        <v>-4.089180297696976</v>
+        <v>-4.07550685414758</v>
       </c>
       <c r="G3">
-        <v>-2.423867914213283</v>
+        <v>-2.421727022076175</v>
       </c>
       <c r="H3">
-        <v>-4.646729978517622</v>
+        <v>-4.638342993493611</v>
       </c>
       <c r="I3">
-        <v>-4.394937809193158</v>
+        <v>-4.391505385187537</v>
       </c>
       <c r="J3">
-        <v>-4.554776532736073</v>
+        <v>-4.551338311678303</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1410,31 +1410,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>7.883180465644629</v>
+        <v>10.08933798616029</v>
       </c>
       <c r="C4">
-        <v>7.261149194559002</v>
+        <v>0.3720566733055678</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.3710252963196961</v>
+        <v>-3.687915806702163</v>
       </c>
       <c r="F4">
-        <v>-0.6822090562709844</v>
+        <v>-4.089180297696976</v>
       </c>
       <c r="G4">
-        <v>-1.059068771799697</v>
+        <v>-2.423867914213283</v>
       </c>
       <c r="H4">
-        <v>-3.382258339709366</v>
+        <v>-4.646729978517622</v>
       </c>
       <c r="I4">
-        <v>-3.769386614368762</v>
+        <v>-4.394937809193158</v>
       </c>
       <c r="J4">
-        <v>-4.024456860711632</v>
+        <v>-4.554776532736073</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1445,10 +1445,10 @@
         <v>4.348212633911547</v>
       </c>
       <c r="C5">
+        <v>3.676951652477945</v>
+      </c>
+      <c r="D5">
         <v>3.687915806702163</v>
-      </c>
-      <c r="D5">
-        <v>0.3710252963196961</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1477,10 +1477,10 @@
         <v>4.746772442247551</v>
       </c>
       <c r="C6">
+        <v>4.07550685414758</v>
+      </c>
+      <c r="D6">
         <v>4.089180297696976</v>
-      </c>
-      <c r="D6">
-        <v>0.6822090562709844</v>
       </c>
       <c r="E6">
         <v>0.8897019346994872</v>
@@ -1509,10 +1509,10 @@
         <v>2.759396455286394</v>
       </c>
       <c r="C7">
+        <v>2.421727022076175</v>
+      </c>
+      <c r="D7">
         <v>2.423867914213283</v>
-      </c>
-      <c r="D7">
-        <v>1.059068771799697</v>
       </c>
       <c r="E7">
         <v>1.340191172142515</v>
@@ -1541,10 +1541,10 @@
         <v>4.980555018623723</v>
       </c>
       <c r="C8">
+        <v>4.638342993493611</v>
+      </c>
+      <c r="D8">
         <v>4.646729978517622</v>
-      </c>
-      <c r="D8">
-        <v>3.382258339709366</v>
       </c>
       <c r="E8">
         <v>4.848670148498835</v>
@@ -1573,10 +1573,10 @@
         <v>4.584626277100824</v>
       </c>
       <c r="C9">
+        <v>4.391505385187537</v>
+      </c>
+      <c r="D9">
         <v>4.394937809193158</v>
-      </c>
-      <c r="D9">
-        <v>3.769386614368762</v>
       </c>
       <c r="E9">
         <v>4.587865822655715</v>
@@ -1605,10 +1605,10 @@
         <v>4.72095797647928</v>
       </c>
       <c r="C10">
+        <v>4.551338311678303</v>
+      </c>
+      <c r="D10">
         <v>4.554776532736073</v>
-      </c>
-      <c r="D10">
-        <v>4.024456860711632</v>
       </c>
       <c r="E10">
         <v>4.780430667496843</v>
@@ -1699,13 +1699,13 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
@@ -1725,16 +1725,16 @@
         <v>14</v>
       </c>
       <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1754,13 +1754,13 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -1780,13 +1780,13 @@
         <v>3</v>
       </c>
       <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
         <v>39</v>
@@ -1812,7 +1812,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>40</v>
@@ -1832,10 +1832,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
